--- a/biology/Neurosciences/Tachykinine/Tachykinine.xlsx
+++ b/biology/Neurosciences/Tachykinine/Tachykinine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tachykinines sont une grande famille de neuropeptides, découverts chez les amphibiens et les mammifères.
 La famille des tachykinines est caractérisée par une séquence Carboxyl terminale commune : Phe-X-Gly-Leu-Met-NH2 où le "X" est soit un hydrocarbure aromatique soit un acide aminé aliphatique (non aromatique).
@@ -512,12 +524,14 @@
           <t>Neurotransmetteurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Substance P
 Neurokinine A (NKA) (substance K, neurokinine alpha, neuromédine L)
 Neurokinine B (NKB) (neurokinine bêta, neuromédine K)
-Hémokinine 1 (HK1) : tachykinine hématopoïétique qui régule l’hématopoïèse des cellules B[1]</t>
+Hémokinine 1 (HK1) : tachykinine hématopoïétique qui régule l’hématopoïèse des cellules B</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Récepteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe trois classes de récepteurs spécifiques connus chez les mammifères : récepteurs NK1, NK2 et NK3. Ils font tous partie de la famille des récepteurs couplés aux protéines G et induisent l'activation de la phospholipase C, produisant à la fois l'inositol trisphosphate et le diacylglycérol (DAG) par clivage du Phosphatidylinositol di-phosphate (PIP2).
 Les récepteurs NK1, NK2 et NK3 se lient respectivement à la substance P, la neurokinine A et la neurokinine B, de façon spécifique.
@@ -577,7 +593,9 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un antiémétique, antagoniste des récepteurs NK1 de la substance P, (Dénomination commune internationale : aprépitant) est commercialisé dans la prévention des nausées-vomissements dus aux chimiothérapies émétisantes.
 </t>
